--- a/data/trans_dic/ip24_2023_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ip24_2023_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 8,29</t>
+          <t>0,8; 8,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 12,2</t>
+          <t>1,9; 11,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 8,33</t>
+          <t>1,88; 8,06</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 10,53</t>
+          <t>4,03; 10,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 8,05</t>
+          <t>2,99; 8,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,15</t>
+          <t>4,26; 8,28</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,96; 19,19</t>
+          <t>9,85; 18,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 15,26</t>
+          <t>6,84; 15,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,59; 15,78</t>
+          <t>9,49; 15,33</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,08; 22,99</t>
+          <t>14,13; 22,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,25; 13,36</t>
+          <t>7,28; 13,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,72; 17,14</t>
+          <t>11,71; 17,42</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,68; 15,33</t>
+          <t>10,89; 15,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,83; 10,66</t>
+          <t>6,86; 10,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,51; 12,44</t>
+          <t>9,57; 12,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ip24_2023_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ip24_2023_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,33%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 8,77</t>
+          <t>2,27; 12,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 11,73</t>
+          <t>0,75; 8,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,06</t>
+          <t>1,99; 8,43</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>5,95%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 10,27</t>
+          <t>3,04; 8,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,2</t>
+          <t>4,12; 10,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,28</t>
+          <t>4,11; 8,37</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>12,57%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,85; 18,85</t>
+          <t>6,84; 17,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 15,21</t>
+          <t>9,98; 19,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,49; 15,33</t>
+          <t>9,56; 16,05</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>13,6%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,13; 22,64</t>
+          <t>5,95; 12,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,28; 13,66</t>
+          <t>13,15; 22,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 17,42</t>
+          <t>10,86; 16,53</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>10,74%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,89; 15,34</t>
+          <t>6,68; 10,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,86; 10,54</t>
+          <t>10,6; 15,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,57; 12,5</t>
+          <t>9,33; 12,58</t>
         </is>
       </c>
     </row>
